--- a/WorkBot/refactor/data/orders/Sysco/Sysco_Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Sysco/Sysco_Triphammer_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,789 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6742647</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apricot - Dried</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5818380</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Can - Coconut Milk</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4072666</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Can - Tomato Paste</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7351430</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vinegar - White Wine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4579587</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>377.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9035601</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>American Cheese (Sliced)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7226918</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8489148</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Smoked Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>768.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4828802</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Heavy Cream</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>55.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6725030</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bacon Thick Cut (Smoked)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>66.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>199.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0566824</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Beef - Ground</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>176.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>176.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7161191</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vegan Mozz</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>72.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7143223</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sausage - Vegan Patty</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1700281</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dates - Fresh Pitted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3335504</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Wrap - White Flour (10")</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4171902</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Manchego Cheese</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>159.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4438911</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Grain Blend 5 Way</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>233.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7133036</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chicken - Diced White &amp; Dark</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>343.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0017354</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hash Brown</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>191.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4617771</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Egg Patty</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>573.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7770727</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ravioli - Cheese (Med)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>42.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1735372</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cucumber (English)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2004547</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Herb - Basil (Fresh)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1008143</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kale - Fresh</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1723857</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lettuce - Green Leaf</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2416691</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lettuce - Romaine Hearts</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>47.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>189.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6235501</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strawberry - Fresh</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>129.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0683696</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>380.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6017263</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tomato - Grape</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>18.01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
